--- a/deuChatbot/research_result/results/rouge_score/rouge_version_2(2000_300).xlsx
+++ b/deuChatbot/research_result/results/rouge_score/rouge_version_2(2000_300).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7329,79 +7329,4154 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 시험은 주로 시각디자인, 산업디자인, 공예디자인 세 분야에서 진행되며, 각 분야는 동일한 종목을 준비해야 합니다. 여기서 설명할将是中文答案，请问您是否需要我用韩语回答这个问题？
+如果您希望我用韩语回答，请告诉我具体的细节，我会尽力提供帮助。如果是关于设计造型学科的实践考试，我可以详细介绍相关的信息。</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.4114370640169288</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2742114085605729</v>
+        <v>0.06753246753246754</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3533012524619863</v>
+        <v>0.1085271317829457</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+- **실기종목**: 기초디자인, 사고의 전환 중 택1
+- **준비물**:
+  - 볼펜
+  - 연필
+  - 색연필
+  - 수채물감 등 표현에 필요한 도구
+- **실기주제**:
+  - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 중에서 선택하여 하나를 사용합니다.
+  - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음 중에서 선택하여 하나를 사용합니다.
+- **화지크기**: 켄트지3절
+- **시간**: 5시간
+이러한 준비물을 가지고 주제A와 주제B 각각 한 가지를 선택하여 연결된 주제를 당일 추첨을 통해 결정합니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.3338319170657851</v>
+        <v>0.5071090047393364</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1719606738357488</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="F203" t="n">
-        <v>0.2739418999390876</v>
+        <v>0.4218009478672986</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 서류심사 점수를 부여받습니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.8352490421455939</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.7192307692307693</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.8314176245210727</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 주제들은 다음과 같습니다:
+- 주제A:
+  - 잠자리
+  - 무궁화
+  - 피망 (파인애플)
+  - 고양이
+  - 양파
+  - 달팽이
+  - 오렌지
+- 주제B: 
+  - 콜라병
+  - 포카리스웨트(캔)
+  - 마스크
+  - 시계
+  - 맥가이버 칼
+당일에는 이 중에서 각각 하나를 선택하여 연결된 주제로 만드는 것이 요구됩니다. 예시로 "잠자리와 오렌지" 또는 "맥가이버 칼과 달팽이" 등이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.5412844036697247</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.3425925925925926</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.4403669724770642</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 모든 전형 요소 중 학생부 교과의 비율이 0%이며, 다른 요소들도 각각의 비율이 정해져 있지만 출결은 포함되어 있지 않습니다.
+만약 더 구체적인 정보나 변경 사항에 대해 알고 싶으시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 대학 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.2765957446808511</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+이 정보는 다음과 같은 문단에서 얻었습니다:
+전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 국어국문학과 - 교직이며, 정원 내 모집인원은 45이며, &lt;가군&gt;의 일반 학생은 17이며, ...</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.3950617283950617</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 
+이 정보는 다음과 같은 문단에서 얻었습니다:
+"다군 수능(일반학생전형) 모집단위 및 모집인원에서 단과대학은 인문사회과학대학이며, 계열은 인문사회이며, 모집단위은 영어영문학과 - 교직이며, 모집인원은 28이다."</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.1707317073170732</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료·보건·생활대학 간호학과 - 교직 - 간호교육인증의 나군 일반 학생 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.4255319148936171</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.1777777777777778</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.4255319148936171</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수들은 각 영어 등급별로 대략적인 변환점수를 나타내는 것입니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.6586826347305389</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.5212121212121211</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.6586826347305389</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 
+상세내용:
+- **모집군**: 나군
+- **전형명**: 학생부교과(농어촌학생전형)
+- **고교유형별 지원자격**:
+  - 일반고: 지원 가능
+  - 자율고: 지원 가능
+  - 특수목적고의 과학고, 국제고, 외국어고: 지원 가능
+  - 특수목적고의 예술고: 지원 불가능 (단, 이 부분은 주요 변경사항에서 수정되었으므로 확인이 필요합니다)
+  - 특수목적고의 체육고: 지원 가능
+  - 특수목적고의 마이스터고: 지원 가능
+  - 특성화고의 특성(직업): 지원 가능
+  - 특성화고의 특성(대안): 지원 가능
+  - 영재학교: 지원 가능
+  - 기타의 학력인정고: 지원 가능
+  - 기타의 방송통신고: 지원 가능
+  - 기타의 각종학교: 지원 가능
+  - 검정고시: 지원 불가능 (단, 이 부분은 주요 변경사항에서 수정되었으므로 확인이 필요합니다)
+  - 외국고: 지원 불가능
+따라서 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원할 수 있지만, 특정 조건이나 변경 사항을 고려하여 최신 정보를 확인하는 것이 좋습니다. 필요하다면 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.2443729903536977</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.1618122977346278</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.2315112540192926</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 272~275 cm이며, 배점은 300점입니다.
+이 정보는 다음과 같은 점들을 바탕으로 추론되었습니다:
+- 등급별 기록 범위: 레저스포츠학과 기록별 배점표에서 제자리 멀리뛰기(cm)의 등급 4는 남은 272~275 cm, 여은 223~226 cm입니다.
+- 배점: 같은 표에서 제자리 멀리뛰기(cm)의 배점은 등급별로 일정하게 300점으로 설정되어 있습니다.
+따라서 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록은 272~275 cm이고, 배점은 300점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.3380281690140846</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.3098591549295774</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 실기/실적 위주 전형에서 출결이 반영되며, 그 비율은 12%입니다.
+이 정보는 제공된 문단에서 다음과 같이 추출되었습니다:
+"전형요소 반영비율(%)의 출결은 12%" 
+따라서 경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.2933333333333333</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.2739726027397261</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.2933333333333333</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위로, 각 종목별로 기초디자인과 사고의 전환 두 가지 실기종목 중 하나를 선택하여 응시하게 됩니다.
+실기고사 일정은 다음과 같습니다:
+- **일시**: 2024년 1월 17일(수)
+- **시간**: 5시간
+준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다. 실기주제는 주제A와 주제B 중 각각 하나씩을 당일 추첨하여 연결된 주제로 선정됩니다.
+예시 주제:
+- **기초디자인**: 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- **사고의 전환**: 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+  - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+참가자들은 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상을 변경해서는 안 됩니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.007905138339920948</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.04705882352941176</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 공과대학 응용화학과의 수능 최저기준 정보는 제공된 데이터에서 확인할 수 없습니다. 
+제공된 정보 중에서는 공과대학 응용화학과에 대한 지원 인원, 모집 인원, 경쟁률, 충원 합격자 등이 나와 있지만, 수능 최저기준은 언급되어 있지 않습니다.
+수능 최저기준이 필요한 경우, 다음과 같은 방법을 통해 확인할 수 있습니다:
+1. 동의대학교의 공식 웹사이트를 방문하여 2024학년도 입시 안내를 참조합니다.
+2. 입시 관련 문의전화로 연락하여 자세한 정보를 요청합니다.
+3. 입시 상담을 받는 경우, 해당 내용을 확인할 수 있습니다.
+추가적으로 필요한 정보나 다른 질문이 있으시면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.0410958904109589</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.06756756756756757</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설)  
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 동의대학교에서는 총 4개의 신설 학과/학부가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.6197183098591549</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.5063291139240506</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학과 ICT융합공과대학의 모집단위에서 수능 가산점을 적용합니다. 특히, 공과대학의 경우 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%가 가산점으로 부여됩니다.
+ICT융합공과대학의 소프트웨어공학부에서도 수능 가산점을 적용하며, 이 경우에는 수학(미적분 또는 기하) 응시자에게 동일하게 수학 취득 표준점수의 10%가 가산점으로 부여됩니다.
+따라서, 수능 가산점을 받기 위해서는 해당 학과에 지원하고 수학(미적분 또는 기하)을 응시해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.311377245508982</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.4023668639053254</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군(일반학생전형)에서는 수능 성적이 다음과 같이 반영됩니다:
+1. **모집단위별 차이**:
+   - **인문사회과학대학, 상경대학 모집단위**: 
+     - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+   - **의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위**:
+     - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점 (수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)
+2. **전반적인 성적 산출 방식**:
+   - 모든 모집단위에서 국어, 수학, 영어 등급 점수, 탐구 과목의 표준점수가 반영됩니다.
+   - 일부 모집단위에서는 수능 수학 영역에 따라 가산점을 부여합니다 (미적분 또는 기하 응시자).
+이러한 방식으로 2024학년도 동의대학교는 학생들의 종합적인 성적을 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.2242152466367713</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.0995475113122172</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.1883408071748879</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.
+참조 정보:
+- 전형일정에서 "전형명": &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+- "일정": 2024. 01. 16.(화)"</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.3614457831325301</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.2716049382716049</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.3373493975903615</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 실기/실적(일반학생전형) 모집단위로는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외됩니다.
+이러한 정보는 "나군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.3300970873786407</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.4190476190476191</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 확인할 수 있습니다:
+- **전형 유형**: 수능 위주
+- **전형명**: 다군 수능(일반학생전형) 전 모집단위 
+- **모집 인원**: 180
+- **사정 단계**: 일괄 합산
+- **수능최저기준**: 수능최저기준 없음
+따라서, 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.2857142857142856</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.2857142857142856</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+이 외에도 여러 학과들이 통합되거나 명칭이 변경되었지만, 질문에 따른 답변으로는 위 두 학과만 분리된 경우로 확인됩니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.1849148418491484</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.136919315403423</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.1654501216545012</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토)까지이며, 접수 마감 시간은 18시까지입니다.
+참조 정보:
+전형일정에서 내용은 원서접수(인터넷)이며, 일정은 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지이며, 비고은 http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com이다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.3269230769230769</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.2884615384615385</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합 평가영역 변경**
+   - 2023년도: 인성 | 학업역량 | 전공적합성
+   - 2024년도: 공동체역량 | 학업역량 | 전공적합성
+2. **전형요소 반영비율 변경**
+   - **가군 실기/실적(경기실적우수자전형)**
+     - 2023년도: 학생부교과 (출결포함) 30% + 서류 (실적) 70%
+     - 2024년도: 학생부교과 18% + 출결 12% + 서류 (실적) 70%
+   - **나군 실기/실적(경기실적우수자전형)**
+     - 2023년도: 학생부교과 30% + 서류 (실적) 70%
+     - 2024년도: 학생부교과 18% + 출결 12% + 서류 (실적) 70%
+   - **나군 학생부종합(조기취업형계약학과전형)**
+     - 2023년도: 서류 (학생부) 70% + 면접 30%
+     - 2024년도: 서류 (학생부) 60% + 면접 40%
+   - **나군 학생부교과(농어촌학생전형)**
+     - 2023년도: 학생부 교과 100%
+     - 2024년도: 학생부 교과 0% (출결, 서류, 면접 비율 변경)
+   - **나군 학생부종합(평생학습자전형)**
+     - 2023년도: 학생부교과 100%
+     - 2024년도: 학생부교과 70%, 면접 30%
+   - **나군 학생부종합(성인학습자전형)**
+     - 2023년도: 학생부교과 100%
+     - 2024년도: 학생부교과 70%, 면접 30%
+   - **나군 학생부종합(재직자전형)**
+     - 2023년도: 학생부교과 100%
+     - 2024년도: 학생부교과 70%, 면접 30%
+이러한 변화는 전반적으로 서류 평가 비중을 높이고, 출결 및 면접 평가 비율을 조정하는 것을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.4184476940382452</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.229988726042841</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.2834645669291339</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 반영되지 않습니다. 
+가군 실기/실적(일반학생전형) 전형요소 반영비율에서 확인할 수 있듯이, 모집단위는 레저스포츠학과와 태권도학과를 제외한 모든 학과에 대해 수능만 100%로 반영되고 실기는 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+이 학부는 미래융합대학의 인문사회 계열에 속해 있으며, 다양한 산업 분야와 연계된 새로운 전공들을 도입하여 학생들이 실용적인 지식과 기술을 습득할 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.4793388429752066</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.3361344537815126</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.4297520661157024</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 외에는 일반 수능(가점제)으로만 지원할 수 있는 학과들이 대부분입니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.3908045977011494</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.4719101123595506</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. **레저스포츠학과 태권도학과**
+   - 실기고사 일정은 2024년 1월 16일(화)입니다.
+2. **디자인조형학과 (시각디자인, 산업디자인, 공예디자인)**
+   - 체육학과와 함께 실기고사 일정은 2024년 1월 17일(수)입니다.
+이 두 학과는 동의대학교에서 실기/실적 위주 전형을 통해 모집하고 있으므로, 해당 학과를 지원하려는 경우 이 날짜와 시간에 맞춰 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.2405063291139241</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.3625</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+这三个专业共同组成了生命融合学部的新设课程。</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊目的高中（如科学高中、国际高中、外语高中等）的学生，并且符合其他条件，那么你有可能可以申请동의대학교的一般学生入学考试。具体来说：
+- 特殊目的高中（如科学高中、国际高中、外语高中等）的学生是可以申请的。
+- 但是还需要满足其他条件，比如是否完成了特定课程或职业培训课程。
+建议你访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do），查看最新的招生简章和具体要求。这样可以确保你获得最准确的信息，并了解是否有额外的要求或限制。
+如果你是中国人并且想申请，请参考中文版的官网信息，或者直接联系学校获取详细指导。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보면, 다음과 같은 정보가 있습니다:
+1. 경영학과 - 교직: 정원 내 모집 인원은 4이며, 나군 일반 학생 모집인원이 0명입니다.
+2. 회계학과 - 교직: 정원 내 모집 인원은 16명이며, 나군 일반 학생 모집인원이 0명입니다.
+3. 경영정보학과: 정원 내 모집 인원은 40명이며, 나군 일반 학생 모집인원이 0명입니다.
+4. e비즈니스학과: 정원 내 모집 인원은 30명이며, 나군 일반 학생 모집인원이 0명입니다.
+위에서 볼 수 있듯이, **경영정보학과**가 가장 많은 정원 내 모집 인원(40명)을 가지고 있습니다. 따라서 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 경영정보학과입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.2211538461538461</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.1359223300970874</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.2019230769230769</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你在韩国留学吗？如果是的话，根据提供的信息，特教高中学生是不能通过동의대학교的学生部学科农渔村学生类型进行申请的。因为该类型的招生对象要求包括：
+- 中·高등학교 재학기간(중학교 입학일~고등학교 졸업일까지) 중 본인 및 그의 부모 모두가 농어촌 지역에 거주한 자 (단, 부모가 사망하거나 이혼한 경우에는 제외)
+- 또는
+- 부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자
+特教高中的学生不符合上述条件，因此不能通过该类型进行申请。如果你有其他问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.2206896551724138</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.01398601398601399</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.1241379310344828</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자와 최종등록자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균을 합쳐서 분석해보겠습니다.
+- **최초합격자:**
+  - 평균 점수: 330.11
+- **최종등록자:**
+  - 평균 점수: 450.71
+**합계 및 평균:**
+- (330.11 + 450.71) / 2 = 390.41
+따라서, 2024학년도 소프트웨어공학부 합격자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **390.41**입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.1298701298701299</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1470588235294117</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.2571428571428571</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정에 따르면, 최초 합격자 발표는 다음과 같습니다:
+- **일시:** 2024. 02. 02.(금) 14:00
+- **방법:** 
+  - 홈페이지에서 개별 조회
+  - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+  - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+이후에도 충원 합격자 발표와 등록 일정이 있습니다:
+- **충원 합격자 1차 발표:** 2024. 02. 14.(수) 09:00
+- **충원 합격자 1차 등록:** 2024. 02. 14.(수) 09:00~16:00
+- **충원 합격자 2차 발표:** 2024. 02. 15.(목) 09:00
+- **충원 합격자 2차 등록:** 2024. 02. 15.(목) 09:00~16:00
+마지막으로, 충원 합격자 3차 이후 발표는 개별 전화 통보를 통해 이루어집니다:
+- **일시:** 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.231023102310231</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.3081967213114754</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 질문에 답변하기 위해서는 좀 더 구체적인 정보가 필요합니다. 면접고사를 언제 보러 가야 하는지 알고 싶으신specifically是说：为了回答您的问题，我需要更多的具体信息。您想了解哪个学校的哪项面试考试的日期呢？请提供相关信息，比如学校名称、具体的招生类型（如普通学生入学、成人教育等）以及面试的具体类别（如综合评价面试等）。这样我可以为您提供更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.05405405405405405</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到韩医学科（한의예과）的具体最低学力标准。通常，大学的招生简章或官方网站会详细列出各专业的具体录取要求和最低学力标准。
+建议您访问以下网站以获取更准确的信息：
+https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系德施巴赫应用技术大学（DEU）的学生事务处或招生办公室，询问韩医学科的具体最低学力标准和其他相关入学要求。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.09523809523809525</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 제공된 데이터에서는 특정 단과대학이나 모집단위별로 수능 최저학력 기준을 명시적으로 확인할 수 없습니다. 
+하지만 전형요소 반영비율에서 "수능최저기준 없음"이라는 표현이 여러 번 등장하고 있습니다. 이는 해당 전형에서는 수능 최저학력 기준이 설정되어 있지 않은 것을 의미합니다.
+따라서, 정시모집에서 특정 단과대학이나 모집단위별로 수능 최저학력 기준이 없다면, 지원자들은 수능 점수에 대한 요구사항을 충족시키지 않아도 지원할 수 있다는 것을 의미합니다. 그러나 이는 모든 단과대학 및 모집단위에 대해 적용되는 것은 아니므로, 특정 단과대학이나 모집단위의 최신 입학요건을 확인하기 위해서는 공식 홈페이지나 입학처와 직접 문의하는 것이 가장 정확한 방법입니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 정보를 확인하시거나, 대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.07070707070707069</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.05102040816326531</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 14일(수) 09:00에 충원 합격자 1차 (인터넷) 발표가 이루어집니다. 또한, 같은 날 동시간대에 충원 합격자 1차 (인터넷) 등록도 진행됩니다.
+추가적으로, 2024년 2월 15일(목) 09:00에는 충원 합격자 2차 (인터넷) 발표와 등록이 이루어집니다.
+마지막으로, 2024년 2월 20일(화)까지는 충원 합격자 3차 이후 (개별 전화 통보)로 발표되며, 이 때도 개별 전화 통보 시 안내에 따라 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.3295454545454546</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.3258426966292134</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도의 추가합격자 발표 일정에 대한 정보는 다음과 같습니다:
+- **충원 합격자 1차 (인터넷) 발표**: 2024. 02. 14.(수) 09:00
+- **충원 합격자 1차 (인터넷) 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **충원 합격자 2차 (인터넷) 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 2차 (인터넷) 등록**: 2024. 02. 15.(목) 09:00~16:00
+따라서 추가합격자 발표는 다음과 같은 일정으로 이루어집니다:
+- **1차 충원 합격자 발표**: 2024년 2월 14일 (수)
+- **2차 충원 합격자 발표**: 2024년 2월 15일 (목)
+이후에는 개별 전화 통보를 통해 추가합격자를 발표하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.4425531914893617</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.2660944206008584</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.323404255319149</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）的内容。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以查看该网站上的最新公告或联系学校的招生办公室以确认是否有额外的招生计划。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.02941176470588236</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입시에서 평생교육을 받은 학습자를 위한 특별한 전형입니다. 주요 내용은 다음과 같습니다:
+1. **전형 요소 및 반영 비율**:
+   - 서류: 70%
+   - 면접: 30%
+2. **제출서류 유형**:
+   - 고교 졸업(예정)자: 고등학교 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증서, 성적증명서 (외국어로 작성된 경우 원본과 번역본 필요)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서, 성적증명서
+3. **평가 영역 및 기준**:
+   - 공동체역량: 협업능력
+   - 학업역량: 학업태도 / 학업성취
+   - 전공적합성: 열정
+4. **모집단위와 인원**:
+   - 미래융합대학 인문사회 계열 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 11명
+   - 부동산자산경영학부: 7명
+5. **지원 자격**:
+   - 평생교육을 받은 학습자 (재직자 포함)
+6. **면접 및 서류평가**:
+   - 면접에서는 지원 동기, 학업계획, 전공적합성 등을 평가합니다.
+   - 서류는 공동체역량, 학업역량, 전공적합성을 중심으로 평가됩니다.
+이 정보를 바탕으로 평생학습자전형에 대한 자세한 내용을 확인하시려면 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.4022503516174403</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.1805359661495064</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.2334739803094233</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **산업체 적용범위**:
+   - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. **재직기간 산정**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+3. **고교 유형별 지원 자격**:
+   - 일반고
+   - 자율고
+   - 과학고, 국제고, 외국어고 (특수목적고)
+   - 예술고, 체육고 (특수목적고)
+   - 마이스터고
+   - 특성화고의 특성(직업) 및 특성(대안)
+   - 영재학교
+   - 학력인정고
+   - 방송통신고
+   - 각종학교
+   - 검정고시
+   - 외국고
+4. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부 1부 (온라인 제공 동의자가 제출할 필요 없음)
+   - 검정고시 출신자: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부 (성적증명서 뒤에 만점이 명시된 고교성적 체계자료 첨부)
+5. **4대 보험 가입자**:
+   - 건강보험자격득실확인서
+   - 국민연금가입증명서
+   - 고용보험자격이력내역서
+6. **4대 보험 미가입 / 창업 및 자영업자**:
+   - 사업자등록증명원 또는 폐업사실증명원 (국세청 홈텍스 발급)
+   - 소득금액증명원 (국세청 홈텍스 발급)
+7. **농업, 수산업 등의 1차 산업체 종사자**:
+   - 국가·지방자치단체가 발급하는 공적증명서
+8. **군 경력자**:
+   - 주민등록초본 (주민등록번호 전체가 기재된 서류)
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.05220883534136546</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 각각의 모집단위에 따라 다른 장소에서 치러집니다. 예를 들어:
+1. 체육학과의 실기고사는 체육 관련 실기를 평가하기 위한 특별한 시설이나 운동장에서 이루어질 것입니다.
+2. 레저스포츠학과의 실기고사는 제자리 멀리뛰기와 Z-런을 평가하기 위해 적절한 공간이 필요할 것입니다.
+3. 태권도학과의 실기고사는 태권도 시범이나 겨루기를 위한 특수 장비와 공간이 필요한 곳에서 이루어질 것입니다.
+具体的来说，你可以访问以下网站以获取更详细的信息：
+https://ipsi.deu.ac.kr/main.do
+该网站提供了详细的考试地点和其他相关信息。建议你直接访问官方网站来确认具体的考场安排和注意事项。</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.09302325581395347</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.01574803149606299</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.09302325581395347</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 세 가지 종목으로 구성되어 있습니다:
+1. 제자리 멀리뛰기 (240점, 24%)
+2. 메디신볼 던지기 (243점, 23%) 
+3. Z-런 (230점, 23%)
+각 종목별로 다음과 같은 점수와 등급이 설정되어 있습니다:
+- 제자리 멀리뛰기는 최고 등급 1등급에서 265cm 이상까지 점수가 부여되며, 최저 등급 11등급에서는 249cm 미만입니다.
+- 메디신볼 던지는 최고 등급 1등급에서 11.5m 이상까지 점수가 부여되며, 최저 등급 11등급에서는 9.0m 미만입니다.
+- Z-런은 최고 등급 1등급에서 14.20초 이하까지 점수가 부여되며, 최저 등급 11등급에서는 15.80초 이상입니다.
+따라서 체육학과를 지원하는 학생들은 위의 세 가지 종목 중 하나를 선택하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.07142857142857144</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.01030927835051546</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.06122448979591837</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년도 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 진행할 예정입니다. 따라서 충원 합격자가 발표된 후에 학교 측으로부터 개별적으로 전화가 오게 됩니다.
+만약 전화를 받지 못한 경우, 입학관리팀을 통해 확인하시거나, 합격자 발표 공고에서 제공된 홈페이지를 통해 개인 정보를 확인하실 수 있습니다. 
+입학 관련 모든 안내는 공식 홈페이지 (http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com)를 통해 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.4142011834319526</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.155688622754491</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.2603550295857988</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2024학년도의 변경사항만 제공된 정보에서 경찰행정학과에 대한 구체적인 수시모집 결과를 확인할 수 없습니다. 2023학년도 경찰행정학과의 수시모집 결과와 관련된 자세한 내용은 공식 입학처 웹사이트인 "https://ipsi.deu.ac.kr/main.do"를 참조해 주세요. 해당 사이트에서 최신 정보와 정확한 데이터를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.438095238095238</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.2330097087378641</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.3238095238095238</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변을 하기 어렵지만, 일반적으로 수능 응시 여부와 무관하게 지원 가능한 전형이 있습니다. 예를 들어:
+1. **학생부종합전형**: 이 전형은 주로 학생부 성적과 면접 등을 종합적으로 평가하여 선발합니다. 따라서 수능 점수 없이도 지원 가능합니다.
+2. **평생학습자/성인학습자/재직자전형**: 이들 전형은 주로 학생부와 면접, 그리고 재직 경력 등을 종합적으로 평가하여 선발합니다. 수능 점수는 필요하지 않습니다.
+3. **농어촌학생전형**: 이 전형은 농어촌 지역 거주 여부와 학생부 성적 등을 기준으로 지원자를 선발하므로, 수능 점수가 요구되지 않을 가능성이 있습니다.
+4. **조기취업형계약학과전형**: 이 전형도 주로 학생부 성적, 면접, 그리고 조기 취업 경력 등을 종합적으로 평가하여 선발합니다.
+따라서 수능 응시 여부와 무관하게 지원할 수 있는 전형이 많습니다. 하지만 특정 단과대학이나 모집단위에 대한 정확한 정보는 해당 대학의 입학처 웹사이트나 공지사항을 확인하는 것이 가장 확실합니다. 필요하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 더 자세한 내용을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.09411764705882351</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.02371541501976284</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.07058823529411765</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 정시모집에서 일반적으로 고등학교 졸업 후 10년이 경과한 경우 정시 지원이 어려울 것으로 보입니다. 대다수의 학과에서는 고등학교 졸업 예정자나 재직자를 대상으로 모집을 진행합니다.
+하지만, 일부 특별전형이나 재직자의 전형 등에서 10년 경과한 경우에도 지원이 가능한 가능성은 있습니다. 특히 "학생부종합(성인학습자(정원내·외)전형)" 또는 "학생부종합(재직자전형)" 등의 전형에서는 재직기간을 중점적으로 평가하기 때문에, 10년 경과한 경우에도 지원이 가능할 수 있습니다.
+추천되는 절차는 다음과 같습니다:
+1. **입학 홈페이지 확인**: https://ipsi.deu.ac.kr/main.do 에 접속하여 2024학년도 입시 안내를 확인합니다.
+2. **전형별 세부 안내**: 각 전형의 지원 자격, 모집 인원 등을 상세히 확인합니다.
+3. **재직자 전형 확인**: "학생부종합(성인학습자(정원내·외)전형)" 또는 "학생부종합(재직자전형)" 등 재직자를 대상으로 하는 전형을特别注意以下内容：
+1. 2024学年的主要变化包括：系科分离（学院→系），院系合并，以及课程名称变更。例如：
+   - 2023年是幼儿保育与家庭咨询专业，而2024年将改为儿童学专业。
+   - 2023年是经济金融保险专业，2024年将改为金融管理专业。
+2. 在招生计划中，有新增和取消的专业。例如：
+   - 新增了心理学专业（新设）。
+   - 新增了智能港口物流专业（新设）。
+   - 新增了创业投资管理专业（新设）。
+   - 新增了生活融合学院（新设），包括创业投资与初创企业学、美容商业学和生活文化学。
+3. 一些专业的招生人数有所减少或取消，例如：
+   - 工业融合系统工程系在2024年将不再招生。
+   - 电子通信工学系中的信息通信工学专业在2024年将不再招生。
+4. 在考试类型方面有变化。例如：
+   - 正式学生综合（成人学习者）：适用于高中毕业或同等学历持有者，年龄需达到30岁以上。
+5. 学生综合素质评价领域有所调整。例如：
+   - 从“品德与学业能力”改为“社区参与力、学业能力和专业适应性”。
+6. 各种类型的录取比例也有所不同。例如：
+   - 实际/实际成绩（优秀运动员）：学生综合30%+文件70%。
+   - 学生综合（成人学习者）：文件（学生综合）60%+面试40%。
+7. 针对体育特长生的招生，如足球和羽毛球等项目，有具体的认可比赛列表。例如：
+   - 羽毛球男子项目的认可比赛包括韩国中高联会会长杯全国学生锦标赛、大韩羽协会长杯全国单项羽毛球锦标赛等。
+   - 足球男子项目的认可比赛包括春季韩国高中足球联盟赛、秋季韩国高中足球联盟赛等。
+8. 体育特长生的录取流程和评分标准也有所不同。例如：
+   - 羽毛球男子项目中，现役国家代表或2023年全国大赛个人前三名可获得700分。
+   - 足球男子项目中，现役青少年国家队或国家代表队成员在2023年全国大赛中获胜的球员可以获得700分。
+9. 针对农村学生的特殊招生计划（农林水学生综合）也有详细的规定。例如：
+   - 支持6年制和12年制教育背景的学生，要求他们在农村地区完成整个中学阶段的学习，并且父母双方或至少一方在该期间居住在农村地区。
+建议您访问学校官网 https://ipsi.deu.ac.kr/main.do 获取最新的招生信息和具体要求。如果有任何疑问，请直接联系学校咨询办公室。
+如果您有其他具体问题或者需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.1310679611650485</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.03414634146341464</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.07766990291262137</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**: 
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토), 마감일 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금), 마감일 17시까지 도착
+   - 참고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: *발표 : 홈페이지에서 개별 조회* *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: 동일한 내용
+   - 충원 합격자 발표 및 등록:
+     - 1차 (인터넷): 2024. 02. 14.(수) 09:00, 09:00~16:00
+     - 2차 (인터넷): 2024. 02. 15.(목) 09:00, 09:00~16:00
+     - 3차 이후 (개별 전화 통보): 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지, 개별 전화 통보 시 안내
+     - 비고: 동일한 내용
+이 일정은 일반적인 정시 모집일정을 요약한 것입니다. 자세한 사항은 입학안내 홈페이지를 참고하시거나 https://ipsi.deu.ac.kr/main.do로 접속하여 확인해 주세요.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.5033507073715563</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.3668903803131991</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.4556962025316456</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 일정을 살펴보면 다음과 같습니다:
+1. **모집인원 확정 공고**: 
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송 (서류 제출대상은 IV. 전형별 세부 안내 참조)
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: *발표: 홈페이지에서 개별 조회* 
+           *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령*
+           *등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: 동일
+   - 충원 합격자 1차 발표 및 등록: 
+     - 1차 발표: 2024. 02. 14.(수) 09:00
+     - 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+   - 충원 합격자 2차 발표 및 등록:
+     - 2차 발표: 2024. 02. 15.(목) 09:00
+     - 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+   - 충원 합격자 3차 이후 발표 및 등록:
+     - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 3차 이후 등록: 개별 전화 통보 시 안내
+이 일정은 일반적인 정시 모집일정을 기반으로 하며, 각 단과대학 및 학과에 따라 세부 일정이 다를 수 있으므로 공식 입학 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.5868725868725868</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.3655705996131528</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.4884169884169884</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)** - 나군
+   - 지원 자격: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+2. **학생부종합(성인학습자(정원내)전형)** - 나군
+   - 지원 자격: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+이 외의 전형들은 수능 점수를 반영하거나, 수능 미응시자가 지원할 수 없는 경우가 많습니다. 따라서 수능 미응시자는 위와 같은 두 가지 전형을 주로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.1711229946524064</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 정보에서 전자공학과의 충원 합격자는 3차까지 이루어졌습니다. 
+특히, "전형일정" 섹션에서 다음과 같은 내용이 있습니다:
+- 합격자 발표 및 등록금 납부 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+- 합격자 발표 및 등록금 납부 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+- 합격자 발표 및 등록금 납부 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+- 합격자 발표 및 등록금 납부 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+따라서, 전년도에 전자공학과의 충원 합격은 최소 3차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하시다면 공식 웹사이트인 "https://ipsi.deu.ac.kr/main.do"를 방문하여 연락처를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.2745098039215687</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자 발표 및 등록일정에서 개별 전화 통보 방식으로 합격자를 발표하였으나, 전화 통화가 되지 않는 경우는 다음과 같이 처리됩니다:
+- **발표 방법**: 홈페이지에서 개별 조회 가능합니다.
+- **고지서 교부 방법**: 홈페이지에서 출력하거나 입학관리팀에서 수령이 가능합니다.
+- **등록장소**: 학교 지정은행으로 등록금을 납부해야 합니다. 등록금 고지서에 기재된 정보를 참고하여 진행해야 합니다.
+따라서, 전화 통화가 되지 않더라도 홈페이지를 통해 관련 정보를 확인하고, 필요한 서류를 준비하여 등록금을 납부하는 과정을 거쳐야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.318407960199005</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.09045226130653268</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.208955223880597</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시, 유형에 따라 다음과 같은 서류가 필요합니다:
+### 유형 6년 과정
+- **지원자 본인의 가족관계증명서** (1부)
+- **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+- **중학교 학교생활기록부** (1부) ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+- **고등학교 학교생활기록부** (1부) ※ 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출 ※ 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+### 유형 12년 과정
+- **지원자 본인의 주민등록초본** (1부)
+- **초등학교 학교생활기록부** (1부)
+- **중학교 학교생활기록부** (1부)
+- **고등학교 학교생활기록부** (1부) ※ 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출 ※ 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+위와 같은 서류들을 준비하여 제출해야 합니다. 각 유형별로 지원 자격과 관련된 세부 사항을 확인하시고 필요한 증빙자료를 첨부해 주세요.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.5936199722607489</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.3783031988873434</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.4965325936199722</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야 하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이 외에 추가로 제출해야 할 서류는 없습니다.
+참고로, 지원자의 부모가 농어촌 지역에서 거주한 사실과 관련된 증빙서류는 필요하지 않습니다. 단, 학생 본인만이 농어촌 지역 소재 학교에서 교육과정을 이수하고 거주한 자여야 합니다.
+또한, 제출방법은 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편발송이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.5945945945945946</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.4202334630350194</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.4864864864864865</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 저소득 기회균등 전형에 대한 명확한 언급이 없습니다. 따라서 현재의 정보로는 정시모집에서 저소득 기회균등 전형이 실시되지 않는 것으로 보입니다.
+만약 저소득 기회균등 전형이 존재한다면, 일반적으로 다음과 같은 특징을 가질 수 있습니다:
+1. 별도의 모집단위 또는 전형 유형으로 운영될 가능성이 높습니다.
+2. 지원 자격 조건과 선발 방법에 대한 별도의 안내가 있을 것입니다.
+3. 학생부 교과 성적, 실기 성적 등 일반적인 전형 요소와 함께 경제적 배경을 고려할 수 있습니다.
+추가 정보를 얻으시려면 공식 홈페이지인 "https://ipsi.deu.ac.kr/main.do"를 방문하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.05988023952095808</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.1301775147928994</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사 처리되지 않습니다. 수능 사탐(사회) 영역의 등급은 실질적으로는 정수 값만 인정되지만, 평균산출 시 소수점이 있는 경우 그대로 반영됩니다.
+따라서 2개 과목의 평균이 2.5등급이라면, 이는 그대로 2.5등급으로 처리되어 수능 성적 산출에 사용될 것입니다.
+예를 들어:
+- 과목1: 3등급
+- 과목2: 2등급
+평균 = (3 + 2) / 2 = 2.5 등급
+이 경우, 평균 2.5 등급은 그대로 사용됩니다.
+만약 수능 성적 산출 방식에 따라 절사가 적용된다면, 2.5등급은 2등급으로 반올림되지만, 일반적으로는 소수점까지 반영합니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.2783505154639175</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.1443298969072165</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제의 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+2. **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+3. **3차 이후 충원 합격자 발표**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지
+각 차례별로 합격자 발표는 홈페이지에서 개별 조회가 가능하며, 고지서 교부와 등록장소는 학교 지정은행으로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.4226804123711341</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.1979166666666667</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.3608247422680412</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 모집요강을 확인해보겠습니다.
+1. **모집인원 및 지원자 수**:
+   - 모집 인원: 10명
+   - 지원 인원: 28명
+2. **경쟁률**:
+   - 경쟁률은 2.80입니다 (28명 지원 / 10명 모집).
+3. **수능 성적 평균 및 표준편차**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 427.20
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 10.50
+4. **수능 반영 영역**:
+   - 수능 반영 영역 및 잔여 비율은 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%.
+**결론:**
+- e비즈니스학과의 경쟁률은 2.80으로, 지원자 수가 많지 않아서 수능 성적 4.6 (427.20점 이상)를 가지고 있다면 추가로 합격 가능성은 높습니다.
+- 그러나 정확한 합격 가능성을 판단하기 위해서는 해당 단과대학의 최종 등록자들의 수능 성적 분포와 경쟁률을 고려해야 합니다.
+따라서, 4.6이라는 점수를 가지고 있다면 추가로 합격 가능성은 높지만, 정확한 확률을 알기 위해서는 더 많은 정보가 필요합니다. 만약 궁금하신 점이 있거나 추가로 확인하고 싶으시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+위 링크를 통해 더 자세한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.4283360790774299</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.1553719008264463</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.2767710049423394</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률과 입학 점수를 분석해보겠습니다.
+- 모집 인원: 10명
+- 지원 인원: 89명
+- 경쟁률: 8.90
+- 충원 합격 (후보순위): 31명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.20이며, 이는 등급으로 환산하면 대략 5.3-5.4 등급 정도입니다.
+이러한 정보를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+1. **평균 점수와 경쟁률**: e비즈니스학과의 평균 입학 점수가 317.20이며, 이는 등급으로 환산하면 대략 5.3-5.4 등급입니다. 지원 인원이 많아 경쟁률이 높지만, 평균 점수와 지원자 수를 고려할 때 5.3등급은 충분히 최초 합격 가능성 있는 범위에 속합니다.
+2. **경쟁률**: 경쟁률이 8.90으로 상대적으로 높지만, 이는 전체 지원자의 수와 입학 가능 인원의 비율을 나타내므로 단순히 등급만으로 판단하기보다는 총 점수와 학업 역량 등을 고려해야 합니다.
+3. **개인 성적**: 5.3등급은 평균 이상의 성적이므로, 이외에도 국어, 수학, 탐구 과목별 등급과 영어 등급이 높다면 더 좋은 입학 가능성입니다.
+따라서, 5.3등급으로 e비즈니스학과에 최초 합격하는 것은 가능성이 있지만, 확실한 것은 아닙니다. 개인의 총 점수와 학업 역량 등 다양한 요소를 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.2659279778393352</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.1002785515320334</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.1551246537396122</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你需要提供具体的国语、数学和英语的标准化考试成绩。
+2. **学校生活记录表（学生部）的成绩**：这部分通常包括你在高中期间各科目的表现情况。
+3. **面试成绩**：如果你参加了面试，需要提供面试得分。
+假设你已经提供了这些信息，并且我们有以下数据：
+- 国语 (Korean) 标准化考试成绩：90分
+- 数学 (Math) 标准化考试成绩：85分
+- 英语 (English) 等级考试成绩：B等级（假设为3.5）
+- 学校生活记录表中的成绩平均分为4.2
+根据你提供的信息，我们可以计算一下综合得分：
+1. **国语、数学和英语的标准化考试成绩**：
+   - 国语 + 数学 + 英语 = 90 + 85 + (3.5 * 10) = 210分
+   - 标准化考试总分为400分，所以这个部分占了210/400 = 52.5%
+2. **学校生活记录表中的成绩**：
+   - 假设你的学校生活记录表中的成绩平均分为4.2（满分5分），那么这部分占70%。
+   - 学校生活记录表部分的得分：4.2 * (70/100) = 2.94
+3. **面试成绩**：
+   - 假设你的面试成绩为85分，占30%。
+   - 面试部分的得分：85 * (30/100) = 25.5
+综合得分计算如下：
+- 标准化考试部分：210
+- 学校生活记录表部分：294（假设满分）
+- 面试部分：255（假设满分）
+总分：210 + 294 + 255 = 760
+根据你提供的信息，如果这些成绩都是满分的话，你的综合得分是合理的。但是具体是否能预估为预录取还需要参考具体的评分标准和往年数据。
+建议：
+- 确认你的实际成绩。
+- 参考往年的录取分数线和平均分。
+- 如果有疑问，可以咨询学校的招生办公室或查看官网上的详细信息。
+希望这些信息对你有所帮助！如果有更具体的数据，请提供给我，我可以进行更精确的评估。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.04098360655737705</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.04098360655737705</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 지원 자료를 보면, 간호학과는 정원 내 모집 인원이 110명이며, 지원 인원은 145명으로 경쟁률이 6.59입니다. 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이고, 이는 대략 3.44 정도의 수능 등급에 해당합니다.
+이러한 정보를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+1. **경쟁률**: 간호학과의 경쟁률이 높습니다 (6.59). 따라서, 평균 점수가 3.44인 경우 합격 가능성은 낮지만, 여전히 가능합니다.
+2. **개별 지원자 성적**: 수능 등급 3.44는 평균적인 수준이며, 일부 지원자가 이보다 높은 점수를 받을 수 있습니다. 따라서, 개인의 특성과 서류평가 등의 영향을 고려하면 합격 가능성은 존재합니다.
+3. **서류 및 면접 평가**: 간호학과는 종종 서류와 면접 평가에서 지원자의 전반적인 적합성을 판단하기 때문에, 좋은 서류와 면접 성적이 있다면 합격 가능성이 높아집니다.
+결론적으로, 수능 등급 3.44로 간호학과에 합격하는 것은 어렵지만 불가능한 것은 아닙니다. 개인의 특성과 지원 자료의 질을 고려하여 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.2990654205607476</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.1191222570532915</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.1806853582554517</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 경쟁률은 6.59이며, 모집인원은 22명이고 지원인원은 145명입니다. 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 353.48입니다.
+당신의 성적이 2.52라는 점을 고려하면, 이는 평균 점수보다 상당히 낮습니다. 그러나 정시 입학에서 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. **경쟁률**: 현재 경쟁률이 높기 때문에, 성적이 조금 낮더라도 특별한 이유가 있다면 합격 가능성이 있을 수 있습니다.
+2. **추천서 및 자기소개서 등 서류평가 영역**: 이 부분에서 좋은 평가를 받으면 점수만으로는 충분하지 않은 경우에도 합격할 수 있습니다.
+3. **면접 성적**: 면접에서도 좋은 결과를 얻을 경우, 총합격 점수가 높아질 수 있습니다.
+4. **특기사항 및 활동 경력**: 특별한 활동이나 경험을 가지고 있다면 이 부분에서 긍정적인 평가를 받을 가능성이 있습니다.
+5. **추천서**: 교사나 학교 관계자로부터의 추천서가 긍정적이라면, 이도 큰 도움이 될 수 있습니다.
+따라서, 단순히 성적이 낮다고 해서 불합격할 것이라는 보장은 없습니다. 하지만 경쟁률과 평균 점수를 고려하면, 합격 가능성은 상대적으로 낮을 것으로 예상됩니다. 
+추천드리면, 동의대학교 입학사정관에게 직접 문의하거나 추가적인 지원 자료를 준비하는 것이 좋습니다. 또한, 다른 대학이나 전형도 함께 검토해보는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.2160664819944599</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.05571030640668524</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.1218836565096953</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수지만, 간호학과에 입학하기 위해서는 여러 요소를 고려해야 합니다.
+1. **전형 유형**: 간호학과는 일반적으로 경쟁률이 높고, 학업 성적 외에도 다른 평가 기준들이 중요합니다.
+2. **학생부 종합 평가**: 공동체역량, 학업역량, 전공적합성 등 다양한 요소를 고려하므로 GPA뿐만 아니라 전체 학생부 내용을 잘 보여줘야 합니다.
+3. **면접 성적**: 면접에서도 좋은 점수를 받는 것이 중요합니다.
+4. **추천서 및 기타 서류**: 추천서나 추가로 제출해야 하는 서류 등이 있는 경우, 이를 잘 준비하고 제출하는 것도 필요합니다.
+2024학년도의 경우, 간호학과의 경쟁률은 6.59에서 14.50까지 다양하며, 평균적으로 높은 경쟁률을 보이고 있습니다. 따라서 GPA가 3.7이라면 다음과 같은 조언이 있을 수 있습니다:
+- **강점 활용**: GPA 외에도 다른 강점을 잘 부각시켜야 합니다 (예: 관련 활동, 자원봉사 경험 등).
+- **추천서 준비**: 추천서를 잘 준비하고 작성하는 것이 중요합니다.
+- **면접 준비**: 면접에서도 좋은 성적을 받기 위해 충분히 준비해야 합니다.
+결론적으로, 3.7의 GPA만으로는 확실한 합격을 보장할 수 없습니다. 그러나 GPA 외에도 다양한 요소를 잘 활용한다면 합격 가능성은 높아질 것입니다. 자세한 정보는 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)에서 확인하시거나, 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.1777777777777778</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.05586592178770949</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.1222222222222222</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원은 22명이며, 최종등록자의 평균 성적은 353.48입니다. 또한, 표준 변환 점수 합의 평균은 481.70이고, 이는 매우 높은 수치입니다.
+당신의 성적이 2.58이라는 점을 고려하면, 현재 정보로는 간호학과에 정시 전형으로 합격하기가 어려울 것으로 보입니다. 하지만 다음과 같은 요인들을 고려해야 합니다:
+1. **경쟁률**: 간호학과의 경쟁률은 6.59이며, 지원 인원이 많아서 입학이 어렵습니다.
+2. **성적 편차**: 표준 변환 점수 합의 표준 편차는 4.66으로, 성적이 상대적으로 높게 분산되어 있습니다.
+3. **전형 요소**: 간호학과는 전형요소 중 서류 평가 비중이 높습니다(서류평가: 70%, 면접: 30%).
+따라서, 성적이 조금 낮더라도 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **서류 준비**: 학교생활기록부와 관련 서류를 철저히 준비하고, 교사의 추천을 받는 것이 중요합니다.
+2. **면접 준비**: 면접에서도 자신의 열정과 적합성을 잘 전달해야 합니다.
+결론적으로, 현재 성적만으로는 합격하기 어렵지만, 다른 평가 요소들을 잘 준비한다면 가능성은 열려 있습니다. 추가 정보나 자세한 조언이 필요하시다면 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다.
+[동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.2182890855457227</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.05934718100890208</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.1415929203539823</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과 모집에서 지원 인원이 16명이고, 경쟁률은 5.33으로 보입니다. 최종 등록자들의 수능 점수와 성적 분포를 보면 평균 국어+수학+탐구(2개) 표준 변환 점수 합은 303.05이고, 영어 등급의 평균은 3.25입니다.
+당신이 예비번호 7번이라면 상위 경쟁력을 갖추고 있는 것 같습니다. 하지만 최종 합격 확률을 정확히 예측하기 위해서는:
+1. 개인의 수능 성적과 등급
+2. 지원 동기와 학업 계획
+3. 면접 성적이 중요할 것입니다.
+수능 점수가 상위권이라면 좋은 기회일 수 있습니다. 하지만 경쟁률이 높은 만큼, 서류 평가와 면접에서도 우수한 결과를 내야 합니다.
+추천 드리는 사항:
+1. 지원 동기와 학업 계획을 명확하게 준비하세요.
+2. 수능 성적과 등급을 최대한 높이세요.
+3. 면접 시 자신감 있게 답변하고, 전공에 대한 진지한 관심을 보여주세요.
+더 자세한 정보나 도움이 필요하시면 학교 입학처 또는 관련 컨설팅 서비스를 이용해보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.2197802197802198</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.05166051660516606</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.1391941391941392</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 평균적인 경쟁률과 비교해보면 상대적으로 낮은 점수입니다. 하지만 정확한 합격 확률을 예측하기 위해서는 여러 요소를 고려해야 합니다:
+1. **경쟁률**: 게임공학과의 최종등록자 경쟁률이 5.33이므로, 평균적인 지원자의 수능 등급이 높은 편입니다.
+2. **수능 점수 분포**:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균: 303.80
+   - 표준 편차: 11.23
+3. **당신의 성적**:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합: 4.16 * 11.23 + 303.80 ≈ 357.9
+이 점수는 평균보다 약간 높은 편입니다.
+4. **모집 인원과 지원 인원**:
+   - 모집 인원: 3명
+   - 지원 인원: 16명
+따라서, 당신의 성적은 상대적으로 좋은 편이지만 경쟁률이 높아 추가 합격 가능성은 낮을 수 있습니다. 
+**추정적인 합격 순위**:
+- 평균 점수를 기준으로 16명 중에서 4.16점의 성적은 상위권에 속합니다.
+- 경쟁률이 높아서 3등까지는 가능성이 있지만, 2등 또는 1등을 받기 위해서는 더 높은 점수를 기록해야 합니다.
+따라서, 추가 합격 확률은 낮지만, 최선을 다해 지원한다면 6위 내에서 합격할 수 있는 가능성은 있습니다. 하지만 정확한 예측은 불가능하며, 실제 결과는 입학사정관의 평가와 기타 요인에 따라 달라질 수 있습니다.
+추천 사항:
+- 추가적으로 영어 등급을 높이는 것이 도움이 될 수 있습니다.
+- 지원서 작성과 면접 준비를 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.2341463414634146</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.07843137254901962</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.1512195121951219</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집에 대한 정보를 바탕으로 답변드리겠습니다.
+주어진 정보만으로는 경영정보학과의 경우, 정시 성적 3.75가 최초합격 가능성 여부를 단정 짓기 어렵습니다. 하지만 일반적으로 다음과 같은 요소들을 고려해야 합니다:
+1. **전형별 평균 점수**: 각 전형별로 지원자의 성적이 어느 정도인지 확인해야 합니다.
+2. **경쟁률**: 해당 학과의 경쟁률을 파악하여 자신의 성적 위치를 판단해야 합니다.
+3. **성적 분포**: 성적의 상위권에 있는지, 중간에 있는지, 하위권에 있는지를 확인해야 합니다.
+주어진 정보에서 경영정보학과의 최초합격자들의 성적 평균은 4.78이며, 표준 편차는 0.20입니다. 이는 매우 높은 점수를 요구하는 전형임을 나타냅니다.
+따라서, 정시 성적이 3.75인 경우, 경쟁률이 매우 높고 평균 성적이 높기 때문에 최초합격 가능성은 낮다고 추정할 수 있습니다. 하지만 이는 단순히 성적만으로 판단하는 것이 아니라 전반적인 지원자의 자질과 학교의 요구사항을 고려해야 합니다.
+추가적으로, 정시 모집에서 성적이 중요한 요소이지만, 서류평가나 면접 등 다른 평가 항목도 중요하게 작용하기 때문에, 해당 학과의 전형요소 반영비율을 확인하고 지원자의 전체적인 경쟁력을 고려하는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 관련 공지사항을 참고하시거나 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.2185792349726776</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.06593406593406594</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.1639344262295082</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 모집단위가 정시모집군 (가)로 변경되었다고 보이므로, 최초합격 가능성은 낮을 것 같습니다.
+최초합격자의 경쟁률과 지원 인원을 살펴보면:
+- 2024학년도 경영정보학과의 모집인원은 15명입니다.
+- 지원 인원은 65명이며, 경쟁률은 4.33:1입니다.
+이와 비교해 보았을 때, 최초합격자의 경쟁률은 2.20:1이나 3.67:1로 상대적으로 낮습니다. 반면에 정시모집군 (가)의 경쟁률이 4.33:1이라는 점에서, 정시 지원자는 충분한 경쟁력을 갖추고 있어야 최초합격을 기대할 수 있습니다.
+따라서, 경영정보학과 정시 성적이 4.2인 경우, 최초등록자로 합격하기는 어렵다고 판단됩니다. 정시모집군 (가)에서는 더 높은 점수와 경쟁력을 갖춘 지원자가 선발될 가능성이 큽니다.
+만약에 정시 지원을 고려한다면, 추가적인 과목별 표준점수나 등급, 그리고 학교생활기록부 등의 평가 요소를 잘 준비하는 것이 중요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.2765957446808511</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.09999999999999999</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.1560283687943262</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 정시 모집군이 "다군 수능(일반학생전형)"이며, 해당 전형의 모집인원은 7명이고 지원 인원은 16명으로, 경쟁률이 5.33:1입니다.
+수능 성적 산출방법에 따르면:
+- 다군 수능(일반학생전형)에서는 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 반영됩니다.
+- 가산점은 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수 x 0.1로 적용됩니다.
+최종 등록자 중 경영정보학과의 지원자들의 성적이 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05
+- 표준 편차는 8.27
+이러한 정보를 바탕으로, 정시 성적이 5.33인 경우, 수능 점수가 상대적으로 높아야 합니다. 평균치보다 약간 낮더라도 표준 편차 내에 위치해 있다면 합격 가능성은 있습니다.
+하지만, 경쟁률이 높고 지원자가 많기 때문에, 정확한 합격 가능성을 판단하기 위해서는:
+1. 자신의 수능 점수가 평균치와 얼마나 차이나는지 확인해야 합니다.
+2. 표준 편차 내에 위치하는지 확인해야 합니다.
+따라서, 정시 성적이 5.33인 경우 경영정보학과로 합격 가능성은 있으나, 확실한 것은 아니며, 최종 합격 여부는 수능 점수와 지원자의 전체 성적 분포에 따라 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.05730659025787965</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.1367521367521368</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 최초합격자의 경쟁률과 지원자들의 성적 평균을 보면 상대적으로 높은 경쟁률을 보이고 있습니다. 특히, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 312.33이며, 영어 등급의 평균이 3.33이라는 점을 고려하면, 성적 3.33 정도는 바이오응용공학부 최초등록자로 입학하기는 어렵다고 볼 수 있습니다.
+바이오응용공학부의 지원자들의 성적 분포를 보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 312.33
+- 영어 등급의 평균: 3.33
+이러한 성적은 바이오응용공학부 최초등록자들의 평균 성적과 비슷하거나 약간 낮습니다. 따라서, 성적이 조금 더 높아진다면 더 좋은 입학 확률을 얻을 수 있을 것입니다.
+하지만, 경쟁률과 지원 인원이 많기 때문에, 성적이 3.33인 경우에도 최초등록자로 선발되는 것은 어렵다고 볼 수 있습니다. 
+추천사항:
+1. 다른 전공들을 고려해 보세요.
+2. 추가적으로 준비를 하여 성적을 향상시키는 것이 좋습니다.
+3. 학교에서 제공하는 지원 자료나 면접 준비 등에 집중하여 입학 가능성을 높이는 것이 중요합니다.
+더 궁금하신 점이 있으시면, https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하거나, 동의대학교 입학처와 연락을 취하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.2872628726287263</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.1198910081743869</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.1842818428184282</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집요강을 바탕으로 답변 드리겠습니다.
+방사선학과는 보통 공과대학에 속하며, 일반학생전형에서는 수능 성적과 학생부가 중요한 평가 요소입니다. 주요 평가 기준은 다음과 같습니다:
+1. **수능 성적**:
+   - 국어 + 수학 + 탐구(2개)의 표준 변환 점수가 중요합니다.
+   - 방사선학과는 과학 분야와 관련이 있으므로, 과학 영역의 성적이 높은 것이 유리합니다.
+2. **학생부 평가**:
+   - 학업역량: 과학 관련 수업에서의 성적 및 활동
+   - 전공적합성: 방사선학과와 관련된 활동이나 경험
+3. **추천서나 특기사항 등 추가 자료**:
+   - 방사선학과에 대한 관심과 열정을 보여줄 수 있는 내용이 필요할 수 있습니다.
+현재 제시된 성적(등급 4.4)은 다음과 같은 점수로 변환됩니다:
+- 국어: 102 (등급 3)
+- 수학: 106 (등급 4)
+- 영어: 115 (등급 4)
+- 과탐(예를 들어 물리): 59 (등급 4)
+이러한 성적을 가지고 방사선학과에 지원한다면, 학업역량 부분에서는 좋은 점수를 받을 수 있을 것입니다. 그러나 방사선학과는 과학 분야와 밀접하게 연관되어 있으므로 과학 영역의 성적이 더 높아지면 더욱 유리할 것입니다.
+추천 드리는 조언은 다음과 같습니다:
+1. **과학 영역 강화**:
+   - 과학 관련 수업에서 더 좋은 성적을 받는 것이 중요합니다.
+2. **활동 및 경험 쌓기**:
+   - 방사선학과와 관련된 활동이나 프로젝트를 참여해보세요.
+3. **추천서 작성**:
+   - 교사나 지도교사를 통해 추천서를 받는 것이 도움이 될 수 있습니다.
+4. **면접 준비**:
+   - 전공적합성과 학업역량을 강조하는 면접 답변을 준비하세요.
+현재의 성적이 방사선학과에 충분히 경쟁력 있는 것은 아니지만, 추가적인 노력과 활동으로 점수를 높일 수 있습니다. 따라서, 현재 성적을 바탕으로 최선을 다해 지원하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.1618257261410788</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.08713692946058091</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20이며, 지원 인원이 36명으로 높은 경쟁률을 보이고 있습니다. 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 338.76이고, 표준 편차는 5.40입니다.
+당신이 제시한 점수인 266.67은 이 평균보다 약간 낮습니다. 하지만 표준 편차를 고려하면, 이 점수가 평균에서 약 -1.89 표준편차 정도 떨어져 있습니다. 이는 상대적으로 좋은 성적을 보여주는 수치입니다.
+다만, 방사선학과의 경쟁률이 높고 지원자가 많기 때문에, 266.67점은 약간 위험할 수 있습니다. 특히 다른 학생들이 더 높은 점수를 받았다면 더욱 그렇습니다.
+추천 사항:
+1. 추가적으로 준비하고자 한다면, 면접 준비와 서류 평가 영역에서의 성적을 향상시키는 것이 좋습니다.
+2. 다른 전형(예: 학생부종합)으로 지원해 볼 수도 있습니다.
+결론적으로, 266.67점은 경쟁률과 지원 인원을 고려할 때 약간 위험한 수준이지만, 최선을 다한다면 충분히 합격 가능성은 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.1575342465753425</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공의 농어촌 전형에 지원하셨다면, 합격 가능성은 낮다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **성적 기준**: 대부분의 대학에서 농어촌 전형은 일반학생전형보다 더 치열한 경쟁을 겪습니다. 성적이 3.66이라면, 평균적인 성적보다 낮아서 합격 가능성은 낮습니다.
+2. **모집인원**: 농어촌 전형의 모집인원이 제한적일 수 있으므로, 많은 지원자가 경쟁하게 됩니다.
+3. **전형 방법**: 농어촌 전형은 종종 성적이 아닌 다른 요소들(예: 지역 거주 여부, 학교생활기록부 등)을 중점적으로 평가하기 때문에, 단순히 성적만으로는 충분하지 않을 수 있습니다.
+그러나 모든 것이 결정적인 것은 아닙니다. 다음과 같은 방법들을 시도해 보시면 도움이 될 수 있습니다:
+1. **추천서 작성**: 학교 관계자나 지역 사회에서의 활동을 통해 추천서를 받는 것을 고려해보세요.
+2. **면접 준비**: 면접에서는 자신의 열정과 농어촌 지역에 대한 이해, 그리고 전공과 관련된 경험 등을 강조할 수 있습니다.
+3. **추가 자료 제출**: 학교생활기록부 외에도 창의적 체험활동이나 사회봉사 활동 등이 있다면 이를 함께 제출해 보세요.
+4. **상담 받기**: 대학 입학처나 상담실에 문의하여 전형 관련 조언을 구해보세요.
+결국, 합격 여부는 여러 요소가综上所述，该考生的成绩为3.66，在竞争激烈的农村招生类别中，尤其是对于警察行政学专业这样的特定专业，仅凭成绩可能难以确保录取。建议考生除了准备充分的申请材料外，还可以通过以下方式增加录取机会：
+1. **撰写推荐信**：尝试从学校老师或社区成员那里获得推荐信。
+2. **面试准备**：在面试中强调自己对专业的热情、对农村地区的了解以及与专业相关的经验。
+3. **提交额外资料**：除了成绩单，还可以提交其他证明材料，如创意实践活动和社会服务经历等。
+4. **咨询相关部门**：向大学招生办公室或咨询处寻求关于申请流程和要求的建议。
+最终录取结果取决于多种因素，因此全面准备并积极应对是提高录取几率的关键。</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.2914798206278026</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.09009009009009009</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.1614349775784753</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 대부분의 경우, 이 정도 순위에서는 합격하기가 어려울 가능성이 큽니다. 하지만 모든 것이 확정된 것은 아니므로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **전형 유형**: 정시 일반학생 전형에서 수능 위주로 평가되는 경우, 수능 성적이 중요합니다.
+2. **수능 성적**: 25번의 순위를 얻기 위해서는 매우 높은 수능 점수가 필요합니다. 예를 들어, 국어, 수학, 영어 등급이 모두 좋은 점수여야 합니다.
+3. **전형 요소 반영 비율**: 전형요소 중 수능이 100%로 반영되는 경우, 수능 성적이 결정적인 역할을 합니다.
+4. **경쟁률**: 해당 학과의 모집인원과 지원자 수를 고려해야 합니다. 경쟁률이 높다면 낮은 순위에서도 합격 가능성은 줄어듭니다.
+5. **개별 요소**: 면접이나 실기 등 다른 평가 항목에서 좋은 성적을 받는 경우, 이로 인해 점수가 상승할 수 있습니다.
+6. **추천서나 추천인의 영향**: 일부 학교에서는 추천서나 추천인이 합격에 큰 역할을 할 수 있으므로, 이 부분도 고려해볼 만합니다.
+결론적으로, 25번은 매우 높은 순위이므로 합격 가능성은 낮지만, 최선을 다하고 추가적인 준비를 하는 것이 좋습니다. 특히 수능 성적을 최대한 끌어올리고, 면접이나 실기 등 다른 평가 항목에서도 좋은 성적을 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.193103448275862</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.04157043879907622</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.1195402298850575</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부에 대한 정보를 바탕으로, 정시에서 안정적으로 합격하기 위한 평균 성적을 추정해보겠습니다.
+1. **수능 성적**: 
+   - **평균 수능 점수**: 420점 이상이 필요할 것으로 예상됩니다.
+   - **등급 기준**: 국어, 수학, 영어 등급의 평균이 3.5~4.0 정도가 바람직합니다.
+2. **학생부 종합 평가**:
+   - **평균 학생부 점수**: 80점 이상을 받는 것이 좋습니다.
+   - **면접 성적**: 90점 이상을 받는 것이 바람직합니다.
+3. **전형별 특성**:
+   - **학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 
+     - 서류 평가에서 공동체역량, 학업역량, 전공적합성을 중점적으로 평가합니다.
+     - 면접에서는 학업태도와 전공에 대한 열정 등을 평가합니다.
+4. **경쟁률**:
+   - 법경찰행정학부의 경쟁률은 높을 것으로 예상되므로, 안정적인 합격을 위해서는 상위권 성적을 받는 것이 중요합니다.
+   - 2023년도 기준으로 법학과의 평균 수능 점수와 학생부 종합 평가 점수가 높은 편이므로, 이보다 더 높은 점수를 받는 것이 바람직합니다.
+5. **추천 성적**:
+   - **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합**: 430점 이상
+   - **영어 등급 평균**: 4.0 이상
+   - **학생부 종합 평가 점수**: 85점 이상
+이러한 기준을 바탕으로, 안정적으로 합격할 수 있는 성적은 다음과 같습니다:
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합**: 430점 이상
+- **영어 등급 평균**: 4.0 이상
+- **학생부 종합 평가 점수**: 85점 이상
+이러한 성적을 받으면, 법경찰행정학부에 안정적으로 입학할 수 있을 것으로 예상됩니다. 하지만 최종 결정은 동의대학교에서 발표하는 정시 모집 결과를 참고해야 합니다.
+추가 정보나 자세한 질문이 있으시다면, 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3852691218130312</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.1420454545454545</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.2464589235127479</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 경우, 정시 모집군은 "가"군으로 분류되며, 수능 전형성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+영어 등급 점수는 5.33에 해당하는 등급을 찾아볼 필요가 있습니다.
+주어진 정보에서, 영어 등급 점수와 그에 해당하는 등급은 다음과 같습니다:
+- 등급 1: 139
+- 등급 2: 131
+- 등급 3: 123
+- 등급 4: 115
+- 등급 5: 107
+- 등급 6: 99
+- 등급 7: 91
+- 등급 8: 83
+- 등급 9: 75
+영어 등급 점수가 5.33에 해당하는 등급은 4등급입니다 (점수는 115).
+따라서, 국어 + 수학 + 탐구(2개) + 영어(4등급)의 표준점수를 합산해야 합니다.
+예시로, 국어 104, 수학 108, 탐구 47 (2개 과목), 영어 4등급을 가정해보면:
+- 국어: 104
+- 수학: 108
+- 탐구(2개): 47 + 47 = 94
+- 영어: 115
+합산 점수는 373점입니다.
+하지만, 실제 합격 가능성을 판단하기 위해서는:
+1. 해당 단과대학의 경쟁률과 지원 인원을 고려해야 합니다.
+2. 모집인원과 충원 합격자 수를 확인해야 합니다.
+3. 다른 지원자의 성적 분포와 비교해야 합니다.
+예시로, 2024학년도 보육가정상담학과의 최초합격자 정보를 보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 318.57
+- 영어 등급의 평균은 4.00
+따라서, 373점은 평균보다 높지만, 경쟁률과 지원 인원을 고려하면 여전히 낮은 점수일 수 있습니다.
+결론적으로, 5.33 등급에 해당하는 영어 점수가 포함된 총 합산 점수가 373점으로 보았을 때, 현재 정보로는 합격 가능성은 높지 않을 것으로 예상됩니다. 하지만 최종 결정은 모집인원과 지원 인원, 경쟁률 등을 고려하여 정확히 판단해야 합니다.
+추가적으로, 동의대학교 입학 홈페이지나 채널을 통해 가장 최신 정보를 확인하는 것이 좋습니다. 필요하다면 학교 관계자에게 직접 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.1952983725135624</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.0544464609800363</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.1157323688969259</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 3차 등록**: 2024. 02. 15.(목) 09:00~16:00
+당신이 예비 12번을 받았다는 점에서, 충원 합격의 가능성은 있습니다. 그러나 정확한 합격 여부는 다음과 같은 요인들에 따라 결정됩니다:
+1. **경쟁률**: 각 모집단위별로 다른 경쟁률이 있으므로, 해당 모집단위의 경쟁률을 확인해야 합니다.
+2. **평가 점수 및 순위**: 서류 평가와 면접 등에서 받은 점수가 중요합니다. 예비 12번을 받았다는 것은 좋은 성적을 받았음을 의미하지만, 최종 합격 여부는 전체 순위에 따라 결정됩니다.
+3. **전형별 특성**: 각 전형(가군, 나군 등)의 평가 기준과 점수 배점이 다르므로, 해당 전형의 특성을 잘 이해해야 합니다.
+추가적으로, 동의대학교 입학 홈페이지나 관련 공고를 확인하여 최신 정보와 자세한 안내를 얻는 것이 좋습니다. 또한, 합격 가능성을 높이기 위해 다음과 같은 조치들을 취할 수 있습니다:
+- **서류 및 면접 준비**: 서류 평가와 면접에서 좋은 성적을 받도록 철저히 준비합니다.
+- **학과 정보 확인**: 해당 학과의 특성과 교육 프로그램에 대해 더 자세히 알아보며, 자신의 적합성을 판단합니다.
+최종적으로는 2024. 02. 15.(목) 발표 이후에 결과를 확인해야 합니다. 이날 발표 후에는 입학관리팀에서 고지서를 받고 등록금을 납부하여 합격 여부를 확정할 수 있습니다.
+추가 정보나 자세한 질문이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.3611650485436894</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.1786407766990291</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 영어 등급을 가지고 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 높고 모집인원이 적기 때문에 어려움이 있을 수 있습니다.
+유아교육학과는 일반적으로 다음과 같은 특징을 가집니다:
+1. **경쟁률**: 유아교육학과의 경쟁률은 매우 높습니다. 지원 인원이 많고 모집인원이 적기 때문입니다.
+2. **성적 요구**: 대부분의 대학에서 이 과정에 지원하려면 4.5 이상의 영어 등급을 보유하고 있어야 합니다. 따라서 4.75는 좋은 성적이지만, 여전히 경쟁력 있는 수준이 아닙니다.
+3. **기타 요인**: 학교생활기록부, 면접 결과, 특별한 경험이나 활동 등도 중요한 평가 기준으로 작용합니다.
+따라서 4.75의 영어 성적만 가지고 유아교육학과에 충분히 입학할 수 있다고 보기는 어렵습니다. 그러나 다음과 같은 방법들을 통해 지원 가능성을 높일 수 있습니다:
+1. **학생부 준비**: 학교생활기록부에서 긍정적인 활동이나 경험을 잘 기재하고, 교사의 추천서를 받는 것이 중요합니다.
+2. **면접 준비**: 면접에서는 유아교육에 대한 열정과 계획을 잘 전달해야 합니다.
+3. **추천서**: 가능하다면 학교 관계자나 전문가로부터 추천서를 받아서 제출하는 것도 도움이 될 수 있습니다.
+결론적으로, 4.75의 영어 등급은 유아교육학과에 지원하기에는 충분하지만, 다른 평가 요소들을 잘 준비하고 활용해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1943661971830986</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.03389830508474576</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.1154929577464789</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교의 정시 모집에서 보육가정상담학과의 경쟁률과 등급 평균을 고려해보겠습니다.
+1. **경쟁률 및 등급 평균**:
+   - 보육가정상담학과는 일반학생전형으로 지원자가 많지 않은 학과일 수 있습니다.
+   - 2024년도의 경쟁률은 3.67에서 최대 5.71까지 다양하며, 등급 평균은 4.31에서 5.68까지 다양합니다.
+2. **당신의 환산등급**:
+   - 당신의 환산등급이 4.16입니다.
+   - 이는 중간 수준의 등급이며, 경쟁률과 평균 등급을 고려하면 상대적으로 낮은 등급입니다.
+3. **합격 가능성**:
+   - 보육가정상담학과의 경우, 일반적으로 4.0 이상의 등급이면 충분히 합격 가능성이 있습니다.
+   - 하지만 경쟁률이 높거나 평균 등급이 높은 경우에는 낮은 등급으로도 합격할 수 있습니다.
+4. **추합까지 생각**:
+   - 추합까지 고려하면, 당신의 환산등급 4.16은 충분히 경쟁력을 갖춘 것으로 보입니다.
+   - 하지만 최종 결정에는 면접 성적과 서류 평가 등이 포함되므로, 전반적인 평점을 고려해야 합니다.
+5. **추천**:
+   - 추합까지 생각한다면 합격 가능성은 있습니다만, 경쟁률과 평균 등급을 고려하면 조금 낮은 등급으로 보입니다.
+   - 다른 학과도 함께 검토해보시고, 면접 준비와 서류 제출에 만전을 기하는 것이 좋습니다.
+결론적으로, 당신의 환산등급 4.16은 보육가정상담학과로 추합까지 생각하면 합격 가능성은 있지만, 경쟁률과 평균 등급을 고려하면 조금 낮은 등급으로 보입니다. 전반적인 평점을 고려하고 면접 준비를 철저히 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.2518518518518518</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.07940446650124069</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.162962962962963</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다:
+1. **모집단위 및 모집인원**: 
+   - 단과대학: ICT공과대학
+   - 계열: 공학
+   - 모집단위: 소프트웨어융합학과
+   - 모집인원: 7명
+2. **수능 반영 영역 및 가산점**:
+   - 수능 반영 영역: 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+   - 가산점: 없음
+3. **경쟁률 및 평균 등급**:
+   - 최초합격자에서의 경쟁률은 4.87이며, 충원 합격자는 63명입니다.
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이고, 표준 편차는 9.08입니다.
+4. **평균 등급 예상**:
+   - 경쟁률이 4.87인 경우, 대략적으로 상위 2% 내외의 점수를 받은 학생들이 충원 합격을 하게 됩니다.
+   - 평균 표준 변환 점수가 330.11이고, 표준 편차가 9.08이므로, 상위 2% 내외의 학생들은 대략 345점 이상을 받은 것으로 추정할 수 있습니다.
+   - 따라서, 소프트웨어융합학과를 정시로 들어갈 가능성을 높이기 위해서는 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수가 345점 이상을 받는 것이 바람직합니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수가 345점 이상을 받는 것이 바람직합니다. 이는 평균 등급으로 보면 상위 10% 내외의 성적을 받아야 합니다.
+추가적으로, 면접 및 서류평가에서도 좋은 결과를 얻어야 하므로, 관련 자료와 활동을 철저히 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.05597964376590331</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.02557544757033248</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.04580152671755726</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 정원외 모집에서 서류평가와 면접평가가 함께 이루어지며, 각각의 영역별로 평가 기준이 있습니다. 특히 서류평가에서는 학업역량, 공동체역량, 전공적합성 등 세부적으로 평가되므로 세특 내용을 충분히 준비하는 것이 중요합니다.
+1. **서류평가**:
+   - **학업역량**: 고교 생활 중 학업에 대한 어려움과 해결하기 위한 노력, 그리고 관련 활동 등을 설명해야 합니다.
+   - **공동체역량**: 협업능력과 학교생활에서의 참여와 경험을 강조해야 합니다. 특히 교내 활동이나 동아리 활동 등에서의 역할과 성과를 구체적으로 기재해야 합니다.
+   - **전공적합성**: 지원 전공(계열)에 대한 관심과 이해, 그리고 관련 활동이나 경험 등을 설명해야 합니다.
+2. **면접평가**:
+   - **지원동기 및 학업계획**: 지원 동기를 명확히 하고, 입학 후의 학업 계획을 구체적으로 이야기해야 합니다.
+   - **학업역량**: 고교 생활 중 학업에 대한 어려움과 해결하기 위한 노력 등을 설명해야 합니다.
+   - **전공적합성**: 지원 전공(계열)에 대한 관심과 이해, 그리고 관련 활동이나 경험 등을 설명해야 합니다.
+**서류 준비 시 유의사항**:
+- **진실성**: 학교생활기록부와 일치하는 내용을 기재해야 합니다. 과장된 내용이나 허위사실은 부정적 평가를 받을 수 있습니다.
+- **구체성**: 경험과 활동을 구체적으로 설명하고, 세부적인 사례를 들어 설명하면 좋습니다.
+- **관련성**: 서류와 면접에서 강조하는 내용이 일치하도록 준비해야 합니다.
+따라서, 소프트웨어융합학과에 지원하려면 학업역량, 공동체역량, 전공적합성을 모두 잘 보여줄 수 있는 서류를 준비하는 것이 중요합니다. 특히 세특 내용은 구체적이며 진실성이 있어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.1364705882352941</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.04728132387706855</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프수웨어공학부의 경우, 지원자의 수능 4개 영역 등급 평균이 4.12이며, 표준 편차가 0.32입니다. 
+현재 제시된 성적이 수능 4개 영역 등급 평균 4.08은 약간 낮습니다. 하지만 동의대학교 소프트웨어공학부는 경쟁률이 높지 않은 모집단위가 아니므로, 단순히 수능 점수만으로 결정되는 것은 아닙니다.
+다음 사항들을 고려해볼 필요가 있습니다:
+1. **전공적합성**: 지원자의 전공 적합성을 평가하기 위해 면접이나 서류평가에서 좋은 성적을 받는 것이 중요합니다.
+2. **면접 및 서류평가**: 면접에서는 학업역량과 전공적합성을 평가받습니다. 이 부분에서 우수한 답변을 해야 합니다.
+3. **추천서 및 자기소개서**: 추천서와 자기소개서 등 서류평가에서도 좋은 점수를 받는 것이 중요합니다.
+따라서, 수능 성적이 약간 낮더라도 전공적합성과 면접 등의 평가에서 우수한 결과를 얻으면 최초합격 가능성은 있습니다. 하지만 경쟁률이 높아서 확실하지 않은 상황입니다.
+추천 드리는 것은, 동의대학교의 입학사정관이나 관련 부서에 문의하여 자세한 정보를 얻는 것이 좋습니다. 또한, 추가적으로 준비할 수 있는 부분들을 체크하고 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.3519553072625698</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.1460674157303371</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.217877094972067</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 소프트웨어융합학과의 정시 모집에서 평균 5등급으로 합격 가능성은 매우 낮습니다. 
+이유는 다음과 같습니다:
+1. **경쟁률**: 소프트웨어융합학과는 많은 지원자가 경쟁하고 있습니다. 예를 들어, 최종 등록자 중에서는 모집인원 30명에 지원 인원이 146명으로 매우 높은 경쟁률을 보였습니다.
+2. **평균 점수**: 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 330.11이며, 영어 등급의 평균은 3.30입니다. 이는 높은 점수를 요구하는 학과임을 나타냅니다.
+3. **5등급**: 5등급은 상당히 낮은 등급으로, 대부분의 합격자들은 1등급에서 4등급 사이에 해당합니다.
+따라서, 평균 5등급으로는 소프트웨어융합학과를 정시로 합격하기 어렵다고 볼 수 있습니다. 더 높은 등급을 목표로 설정하거나 다른 전형을 고려하는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.3311688311688311</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.09150326797385622</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.1753246753246753</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과에 대한 지원을 고려할 때, 평균적인 경쟁률과 입학 점수를 살펴보면 다음과 같습니다:
+- **모집 인원**: 56명
+- **지원 인원**: 81명
+- **경쟁률**: 1.45
+- **충원 합격 (후보순위)**: 25명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 271.64
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 19.52
+이러한 정보를 바탕으로, 정시 성적이 4.28이라는 점수는 평균적인 입학 점수(271.64)보다 약간 높습니다. 그러나 신소재공학과의 경쟁률은 1.45로 상대적으로 낮지 않으며, 지원 인원이 많아서 경쟁이 치열할 수 있습니다.
+**추천 사항:**
+1. **성적 평균보다 높은 점수**: 4.28이라는 점수가 평균 이상으로 보입니다.
+2. **전공 적합성**: 신소재공학과에 대한 관심과 전공 적합성을 고려해보세요.
+3. **추가 지원 자료**: 학생부, 자기소개서 등 추가 지원 자료를 잘 준비하여 경쟁력을 높일 수 있습니다.
+결론적으로, 4.28이라는 점수는 충분히 신소재공학과에 입학할 가능성이 있지만, 경쟁률과 지원 인원이 많아서 확실한 것은 아닙니다. 추가적인 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.3324937027707808</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.1215189873417721</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.1863979848866499</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>一般来说，对于一般学生入学考试（수능 전형），如果选择的是通过高考成绩进行选拔的类型，通常不需要提交个人陈述或自我介绍信。但是具体情况可能会因学校和专业而有所不同。
+根据提供的信息，以下是一般学生入学考试的一些常见情况：
+1. **가군 (일반학생전형)**:
+   - 适用于多个学院和系别。
+   - 计算方法通常是：国语 + 数学 + 英语等级分 + 研究科目标准分数（可能包括加分项）。
+2. **나군 (일반학생전형)**:
+   - 同样适用于多个学院和系别，但计算方法略有不同。
+   - 通常包括加权的高考各科成绩。
+3. **다군 (일般学生入学考试)**：
+   - 计算方法与가군类似。
+对于这些类型的一般学生入学考试，通常不需要提交个人陈述或自我介绍信。主要依据是你的高考成绩和其他可能提供的附加信息（如加分项）来评估申请者的资格。
+但是，如果你选择的是包含面试或其他额外评估环节的入学方式（例如某些艺术类专业），可能会需要提交个人陈述或进行面试准备。
+建议你直接访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 查看具体要求和说明。如果有任何疑问，最好联系招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.144578313253012</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.02469135802469136</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.0963855421686747</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 등급을 가지고 동의대학교에 지원하려면, 해당 학과의 모집단위와 경쟁률 등을 고려해야 합니다.
+1. **학과 및 모집단위 확인**: 먼저 지원하고자 하는 단과대학과 모집단위를 확인하세요. 예를 들어 상경대학 금융경영학과, 공과대학 환경공학과 등입니다.
+2. **경쟁률 확인**: 해당 학과의 경쟁률을 확인해야 합니다. 경쟁률이 높다면 4.5는 낮은 점수일 수 있습니다. 예를 들어 경쟁률이 10:1이라면 4.5 등급으로 충원된 학생들의 평균 등급을 살펴보세요.
+3. **충원 합격자 분석**: 해당 모집단위의 충원 합격자들의 수능 등급 분포를 확인해 보세요. 만약 4.5 이상의 학생들이 대부분 충원된 경우, 추가모집에서도 같은 점수로는 어렵게 될 것입니다.
+4. **추가모집 가능성**: 일부 대학에서는 추가모집 시 경쟁률이 낮아지거나 다른 요인들(실기, 면접 등)을 고려하여 학생들을 선발할 수 있습니다. 따라서 추가모집에 지원해 보는 것이 좋습니다.
+5. **추가 정보 확인**: 동의대학교의 공식 홈페이지나 입학처와 연락하여 추가모집에 대한 자세한 정보를 얻어보세요. 특히, 추가모집 시 기준점이나 특별한 평가 요소 등이 있는지 확인해야 합니다.
+6. **전형 유형**: 동의대학교의 수능 정시 모집은 여러 유형으로 나뉘므로, 지원하고자 하는 전형(가군, 나군, 다군)에 따른 산출방법을 확인하세요. 예를 들어, 가군에서는 국어 + 수학 + 영어 + 탐구 등급 점수를 합산하여 평균을 구합니다.
+결론적으로 4.5라는 등급으로는 추가모집에서도 충분히 가능하지만, 확실한 답변은 동의대학교 입학처와 직접 문의하는 것이 가장 정확할 것입니다. 공식 홈페이지나 전화로 상세한 정보를 얻어보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.4187725631768953</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.1594202898550725</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.2021660649819495</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교 신소재공학부(신소재공학과, 고분자나노공학과)의 모집요강을 기반으로 추정해보겠습니다.
+1. **모집 인원 및 지원 인원**:
+   - 신소재공학과: 모집인원 56명, 지원인원 81명
+   - 고분자나노공학과: 모집인원 0명 (모집중지)
+2. **경쟁률**:
+   - 신소재공학과의 경쟁률은 1.45입니다.
+3. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균 및 표준 편차**:
+   - 신소재공학과: 평균 286.97, 표준 편차 15.35
+4. **영어 등급 평균 및 표준 편차**:
+   - 신소재공학과: 영어 평균 4.33, 표준 편차 1.05
+5. **수능 4개 영역 등급 평균 및 표준 편차**:
+   - 신소재공학과: 수능 4개 영역 평균 5.32, 표준 편차 0.36
+6. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균 및 표준 편차**:
+   - 신소재공학과: 평균 399.26, 표준 편차 16.29
+이러한 데이터를 바탕으로 추정해보면, 경쟁률이 1.45이고 지원 인원이 많은 상황에서 합격 가능성을 높이기 위해서는 **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**은 약 300점 이상, **영어 등급**은 4.5 이상을 추천드립니다.
+하지만 이는 추정치이며, 실제 합격 가능 점수는 모집단위와 지원자의 수준에 따라 달라질 수 있으므로, 최종적인 합격 가능성은 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.1842818428184282</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.05994550408719346</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.1246612466124661</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과의 경쟁률과 충원 합격자 수를 고려할 때, 표준점수 447점으로 지원하신다면 충분히 가능성이 있습니다. 하지만 작년 데이터만으로 판단하기보다는 다음과 같은 요인들을 종합적으로 고려해야 합니다:
+1. **경쟁률**: 작년 신소재공학과의 경쟁률이 현재와 비슷하거나 더 높았다면, 표준점수 447점으로 충원 합격 가능성은 낮아질 수 있습니다.
+2. **모집인원 및 지원 인원**: 모집인원이 많고 지원 인원이 적으면 경쟁률이 낮아지므로, 표준점수가 더 낮더라도 충원 가능성이 높아집니다.
+3. **표준점수 변동성**: 표준점수는 연도별로 변동할 수 있으므로 작년과 현재의 표준점수 차이는 고려해야 합니다.
+4. **개인 성적 및 경쟁자들의 성적 분포**: 개인의 국어, 수학, 탐구 등 개별 과목 점수가 높다면, 전체 평균보다 낮은 표준점수로도 충원 가능성이 있습니다.
+5. **영어 등급**: 작년과 현재의 영어 등급 평균을 비교하여 개인의 영어 성적이 우수하다면 이 또한 긍정적인 요인이 될 수 있습니다.
+6. **전공적합성 및 기타 평가 요인**: 서류평가와 면접 등의 결과도 중요한 역할을 합니다. 전공적합성과 학업역량, 공동체역량 등이 높다면 이점이 반영될 수 있습니다.
+따라서, 작년 데이터만으로 판단하기보다는 현재의 모집 상황과 개인의 성적 및 경쟁력을 종합적으로 고려하여 결정하는 것이 좋습니다. 추가로 동의대학교 입학 홈페이지나 총장실에서 제공하는 최신 정보를 확인하시거나, 입학처에 문의하시는 것도 도움이 될 것입니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+위 링크를 통해 동의대학교의 공식 웹사이트를 방문하여 가장 최신 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.2063882063882064</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.0691358024691358</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.1277641277641278</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 동의대학교에서 신소재공학과의 일반학생전형에 충분한 점수일지는 불확실합니다. 동의대학교의 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+신소재공학과는 일반적으로 과학 분야에 대한 지식이 필요하기 때문에, 탐구 영역에서 좋은 성적을 받는 것이 중요합니다. 또한, 동의대학교의 경우 수능 4개 영역 중 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2로 산출하는 방식도 있습니다.
+현재의 성적(4.3등급)은 동의대학교에서 요구하는 수준에 미치지 못할 가능성이 높습니다. 특히, 신소재공학과는 과학 탐구 영역에서 높은 점수를 받는 것이 중요하기 때문에, 4.1~4.2등급으로는 충분한 경쟁력을 갖추기 어렵다고 보입니다.
+하지만 최종 결정을 내리기 위해서는 동의대학교의 정확한 성적 산출 방식과 모집단위를 확인해야 합니다. 또한, 다른 학교들에 지원하여 다양한 기회를 얻는 것이 좋습니다. 
+더 자세한 정보나 추가적인 도움이 필요하시다면, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.3935926773455378</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.128735632183908</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.2379862700228833</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인공지능학과 수능(일반학생전형) 최종등록자의 성적 정보를 바탕으로 다음과 같이 요약할 수 있습니다:
+- 모집인원: 15명
+- 지원인원: 24명
+- 경쟁률: 1.60
+- 충원 합격 (후보순위): 5명
+성적 관련 통계:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 403.85
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 15.55
+- 영어 등급의 평균: 4.53
+- 영어 등급의 표준 편차: 0.80
+- 수능 4개 영역 등급의 평균: 5.25
+- 수능 4개 영역 등급의 표준 편차: 0.35
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 403.85
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차: 15.55
+이 정보를 참고하여 자신의 성적과 비교해보시고, 입학 가능성을 판단하시기 바랍니다. 또한 동의대학교의 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)에서 최신 정보와 추가적인 지원 가이드라인을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.581151832460733</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.368421052631579</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.5497382198952879</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교의 정시 모집단위에서 합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **모집단위와 전형**: 동의대학교의 각 단과대학과 모집단위별로 수능 등급의 평균 및 표준편차가 다릅니다. 따라서 특정 단과대학이나 모집단위에서 5.27이라는 성적을 가지고 합격 가능성을 판단해야 합니다.
+2. **모집인원과 지원인원**: 각 모집단위별로 모집 인원과 지원 인원이 다르므로 경쟁률도 다릅니다. 경쟁률이 높은 곳에서는 5.27이라는 성적만으로는 합격하기 어렵습니다.
+3. **전형별 평균 및 표준편차**: 예를 들어, 상경대학의 회계학과 모집단위에서 5.27이라는 성적이 평균보다 높다면 경쟁률을 고려할 때 더 낫게 보일 수 있습니다.
+4. **전형별 특성**: 일부 전형에서는 수능 점수 외에도 다른 요소들이 중요하게 작용합니다. 예를 들어, 학생부종합 평가에서 5.27이라는 성적은 좋은 성적이지만, 학업역량이나 전공적합성 등 다른 평가 영역에서도 높은 점수를 받는 것이 필요할 수 있습니다.
+### 예시 분석:
+- **상경대학 회계학과**: 
+  - 모집 인원: 21
+  - 지원 인원: 42
+  - 경쟁률: 2.00
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 295.86
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 16.13
+  이 경우, 5.27이라는 성적은 평균보다 낮지만, 경쟁률이 2.00으로 낮기 때문에 가능성이 있습니다.
+- **상경대학 e비즈니스학과**: 
+  - 모집 인원: 10
+  - 지원 인원: 89
+  - 경쟁률: 8.90
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 308.58
+  이 경우, 5.27이라는 성적은 평균보다 낮고 경쟁률이 높기 때문에 합격 가능성은 낮습니다.
+### 결론:
+- **경쟁률이 낮거나 모집인원이 많은 단과대학/모집단위**에서는 5.27이라는 성적이 가능성을 열어줄 수 있습니다.
+- **경쟁률이 높고 모집인원이 적은 단과대학/모집단위**에서는 합격 가능성은 낮습니다.
+따라서, 구체적인 단과대학과 모집단위를 알려주시면 더 정확한 판단을 할 수 있습니다. 또한, 다른 평가 요소들도 고려해야 하므로, 전반적으로 보는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.2111801242236025</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.0469937802349689</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.1200828157349897</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 지원하려면, 수능 성적이 중요한 요소 중 하나입니다. 주요 정보를 바탕으로 분석해보겠습니다:
+1. **수능 성적**: 동의대식 정시 성적 4.2는 수능 4개 영역 등급 평균 점수입니다.
+2. **모집단위 특성**:
+   - 소프트웨어공학부는 경쟁률이 높은 모집단위 중 하나로, 지원 인원과 모집인원의 비율이 146:30으로 매우 높습니다 (경쟁률 4.87).
+   - 이와 관련해 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이고, 표준 편차는 7.35입니다.
+3. **성적 평균과 비교**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87으로, 동의대식 정시 성적 4.2는 이보다 낮습니다.
+   - 그러나 표준 편차가 7.35로 상대적으로 작아, 평균점수와 비교했을 때 좋은 성적이 될 수 있습니다.
+4. **경쟁률과 지원 인원**:
+   - 경쟁률이 높은 만큼, 동의대식 정시 성적 4.2는 충분히 경쟁력을 갖추고 있지만, 확실한 합격을 보장하는 것은 어렵습니다.
+   - 그러나 표준 편차가 작아서, 평균점수보다 낮더라도 상위권에 포함될 가능성이 있습니다.
+5. **전형 요소**:
+   - 다군 수능(일반학생전형)에서는 수능 성적이 100% 반영되므로, 이 점수는 중요한 역할을 합니다.
+   - 동점자 처리 기준은 수능 국어, 수학, 영어 영역의 합계점수가 상위자로 결정됩니다.
+결론적으로, 동의대식 정시 성적 4.2는 소프트웨어공학부에 지원할 수 있지만, 경쟁률이 높고 지원 인원도 많아서 확실한 합격을 보장하기는 어렵습니다. 그러나 표준 편차가 작아서, 평균점수보다 낮더라도 상위권에 포함될 가능성이 있습니다. 따라서 추가적인 준비와 노력이 필요하며, 다른 전형이나 대학도 고려해보시는 것이 좋겠습니다.
+추가적으로, 입학사정관의 면접 결과나 학생부 등 다른 평가 요소를 잘 준비한다면 더 좋은 결과를 얻을 수 있을 것입니다. 자세한 정보는 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.2177419354838709</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.0931174089068826</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.1411290322580645</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92 등급점수를 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 수능 전형성적 산출 방법에 따라 변환해보겠습니다.
+화학환경공학부의 경우, 수능 전형성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+영어 등급점수는 3.92로 변환됩니다.
+등급 점수 변환표를 참조하면, 등급 8은 101점으로 변환됩니다.
+따라서, 3.92 등급을 101점으로 변환합니다.
+이제 전체 성적 산출:
+- 국어 표준점수 + 수학 표준점수 + 101 (영어) + 탐구 표준점수
+만약 국어와 수학의 표준점수가 주어지지 않았다면, 이 점수들에 대한 정보가 필요합니다. 하지만 주어진 정보만으로는 정확한 산출이 어렵습니다.
+일반적으로 등급 8은 상당히 높은 점수로, 대부분의 학과에서 좋은 성적을 보여줄 수 있습니다. 그러나 화학환경공학부의 경우, 탐구 영역도 포함되므로, 탐구 영역의 표준점수가 높아야 합니다.
+만약 국어와 수학 점수도 높다면, 3.92 등급점수를 포함하여 전체 성적이 충분히 높을 가능성이 있습니다. 하지만 정확한 판단을 위해서는 실제 국어와 수학의 표준점수가 필요합니다.
+따라서, 주어진 정보만으로는 확정할 수 없지만, 3.92 등급점수 자체로는 화학환경공학부에 지원하는 것은 가능하다고 볼 수 있습니다. 하지만 최종 결정을 위해서는 전체 성적을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.2379603399433428</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.06267806267806267</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.1643059490084986</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교의 경우, 화학공학과, 환경공학과, 응용화학과 등이 화학환경공학부로 통합되었습니다. 따라서 원서를 접수하신 화학환경공학부는 이전 학과와 같은 전형방법을 따르게 됩니다.
+수능 일반학생전형의 경우, 성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 (또는 가산점 포함)
+당신이 제공한 성적 4.25는 수능 4개 영역(국어, 수학, 영어, 탐구) 중 상위 3개 영역의 평균 점수를 의미하는 것으로 보입니다.
+현재 동국대학교 화학공학과, 환경공학과, 응용화학과 등의 모집단위는 일반학생전형에서 수능 성적을 다음과 같이 반영합니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 (가산점 포함)
+따라서, 제공하신 성적이 4.25라면, 이는 수능 4개 영역 중 상위 3개 영역의 평균 점수가 4.25일 것으로 추정됩니다.
+이러한 점을 고려할 때, 제공하신 성적 4.25로 화학공학과, 환경공학과, 응용화학과 등에 지원하는 것은 가능합니다. 하지만 최종 합격 여부는 경쟁률, 모집인원, 지원자들의 성적 분포 등 다양한 요소에 따라 결정됩니다.
+추가적으로, 동국대학교의 정시모집 전형은 주기적으로 변경될 수 있으므로, 최신 정보를 확인하시려면 공식 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.3350515463917526</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.150259067357513</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.211340206185567</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 표준점수로 보이는데, 이 점수만으로는 확실한 답변을 드리기 어렵습니다. 영화학과의 경우 경쟁률이 높고, 평균적인 합격 점수가 높은 편입니다.
+다음 정보를 참고하시면 도움이 될 것 같습니다:
+1. **경쟁률**: 2024학년도 최초합격자에서 영화학과의 경쟁률은 2.20였습니다.
+2. **평균 합격 점수**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 303.80
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 426.80
+현재 제시된 4.2는 표준점수로 보이므로, 이를 일반점수로 변환해야 합니다. 대략적인 변환 규칙을 사용하면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 303.80은 일반점수로 약 105점 정도 됩니다.
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균 426.80은 일반점수로 약 147점 정도 됩니다.
+따라서, 현재 제시된 4.2는 대략 135-140점 정도일 것으로 추정됩니다. 이 점수가 영화학과의 평균 합격 점수(147점)보다 낮으므로, 경쟁률이 높은 만큼 합격 가능성은 낮을 수 있습니다.
+하지만, 입시는 단순히 성적만으로 결정되는 것이 아닙니다. 면접 성적이 중요하며, 지원자의 전반적인 역량과 적합성도 고려됩니다. 따라서, 다음과 같은 점들을 확인해보세요:
+1. **면접 준비**: 면접에서 좋은 인상을 주는 것이 중요합니다.
+2. **추천서 및 자기소개서**: 잘 작성된 추천서와 자기소개서가 도움이 될 수 있습니다.
+3. **활동 경력**: 관련 활동이나 경험을 잘 설명할 수 있어야 합니다.
+마지막으로, 입시 결과는 여러 요인에 의해 결정되므로, 최선을 다해 준비하고, 합격 가능성은 낮더라도 포기하지 않는 것이 중요합니다. 추가 정보나 자세한 질문이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.3320895522388059</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.1722846441947565</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.2313432835820896</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 개별면접 방식으로 진행되며, 면접위원 2~3인이 평가를 담당합니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.8674698795180723</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.8536585365853659</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.8674698795180723</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4114370640169288</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.2742114085605729</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.3533012524619863</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.3338319170657851</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.1719606738357488</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.2739418999390876</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.3188991782593515</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.1734171669696485</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.2489966673393545</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3726344905413569</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.2230860411981609</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.3136215762005369</v>
+      <c r="D305" t="n">
+        <v>0.3547227197806885</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.2065297497886567</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.2920799399134761</v>
       </c>
     </row>
   </sheetData>
